--- a/kittyserver/gametools/parseExcelTool/Excel/Shop.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Shop.xlsx
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商店表_3_Shop!$A$6:$M$193</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="593">
   <si>
     <t>id</t>
   </si>
@@ -1904,10 +1904,6 @@
   </si>
   <si>
     <t>10010178_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010187_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2468,13 +2464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7474,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H132" s="15">
         <v>3</v>
@@ -7512,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H133" s="15">
         <v>3</v>
@@ -7550,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H134" s="15">
         <v>3</v>
@@ -7588,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="15">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H135" s="15">
         <v>3</v>
@@ -7626,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="15">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H136" s="15">
         <v>3</v>
@@ -7664,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="15">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H137" s="15">
         <v>3</v>
@@ -7702,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H138" s="15">
         <v>3</v>
@@ -7740,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="15">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H139" s="15">
         <v>3</v>
@@ -7778,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="15">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H140" s="15">
         <v>3</v>
@@ -7816,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="15">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H141" s="15">
         <v>3</v>
@@ -7854,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="15">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="H142" s="15">
         <v>3</v>
@@ -7930,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H144" s="15">
         <v>4</v>
@@ -7968,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H145" s="15">
         <v>4</v>
@@ -8006,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H146" s="15">
         <v>4</v>
@@ -8044,7 +8040,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H147" s="15">
         <v>4</v>
@@ -8082,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="15">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H148" s="15">
         <v>4</v>
@@ -8120,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H149" s="15">
         <v>4</v>
@@ -8158,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H150" s="15">
         <v>4</v>
@@ -12201,44 +12197,6 @@
         <v>178</v>
       </c>
       <c r="L256" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="15">
-        <v>90019107</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="C257" s="15">
-        <v>1</v>
-      </c>
-      <c r="D257" s="15">
-        <v>1</v>
-      </c>
-      <c r="E257" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="F257" s="15">
-        <v>1</v>
-      </c>
-      <c r="G257" s="15">
-        <v>0</v>
-      </c>
-      <c r="H257" s="15">
-        <v>1</v>
-      </c>
-      <c r="I257" s="15">
-        <v>1</v>
-      </c>
-      <c r="J257" s="14">
-        <v>100</v>
-      </c>
-      <c r="K257" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L257" s="14">
         <v>1</v>
       </c>
     </row>
@@ -12288,7 +12246,7 @@
       <formula>LEN(TRIM(B195))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E198:E257">
+  <conditionalFormatting sqref="E198:E256">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E198))=0</formula>
     </cfRule>
